--- a/automation-poc/src/test/resources/TestData.xlsx
+++ b/automation-poc/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{34DA6505-11CD-4637-9652-6121CBAC013D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1386FBA8-8672-4ADE-9D6A-38EC78998E90}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10212" windowHeight="1680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16056" windowHeight="6096" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="paymentsAndTransftersPage" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F20"/>
+  <oleSize ref="A1:Q24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>TCID</t>
   </si>
@@ -48,15 +48,6 @@
     <t>Log Try</t>
   </si>
   <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
     <t>UpdateMyInformationPageTest</t>
   </si>
   <si>
@@ -67,6 +58,12 @@
   </si>
   <si>
     <t>Ab1234567*</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>Forrest HK New Address1</t>
   </si>
 </sst>
 </file>
@@ -441,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -475,10 +472,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -522,10 +519,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -547,27 +544,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
